--- a/data/personal/personal-data.xlsx
+++ b/data/personal/personal-data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10606"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connormeeks/Desktop/data-science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638E833C-3D82-3849-931E-7A0E2834CBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{638E833C-3D82-3849-931E-7A0E2834CBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F36ECBBC-8970-6045-8E68-C88D13E8B5E7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{67EDC2A1-367E-C348-B274-E23B7D142D29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Ideas" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>date</t>
   </si>
@@ -203,6 +204,18 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Workout</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Scripture</t>
   </si>
 </sst>
 </file>
@@ -249,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +279,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,37 +734,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD3FB76-7723-004B-8A81-8536B4A0FBE6}">
-  <dimension ref="A1:AE5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B71247A-2298-5848-BF9C-BD9475CD902F}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="16.1640625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="1"/>
-    <col min="20" max="20" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.83203125" style="1"/>
-    <col min="28" max="28" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.51953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.13671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>44743</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <f>A2+1</f>
+        <v>44744</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <f t="shared" ref="A4:A33" si="0">A3+1</f>
+        <v>44745</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <f t="shared" si="0"/>
+        <v>44746</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>44747</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>44748</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
+        <v>44749</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>44750</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>44751</v>
+      </c>
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>44752</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>44756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>44758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>44760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>44761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>44762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>44763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>44765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>44766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>44767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>44768</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>44769</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>44770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>44772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD3FB76-7723-004B-8A81-8536B4A0FBE6}">
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView zoomScale="167" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8515625" style="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.98828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.98828125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8515625" style="1"/>
+    <col min="12" max="12" width="16.15234375" style="1" customWidth="1"/>
+    <col min="13" max="17" width="10.8515625" style="1"/>
+    <col min="18" max="18" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.8515625" style="1"/>
+    <col min="20" max="20" width="11.8359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10.8515625" style="1"/>
+    <col min="23" max="23" width="13.80859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.38671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.9609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.8515625" style="1"/>
+    <col min="28" max="28" width="25.5234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.8515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
@@ -1212,6 +1551,9 @@
       <c r="AD5" s="1" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1">
